--- a/2021/Madeleine P/Madeleine P_2021.xlsx
+++ b/2021/Madeleine P/Madeleine P_2021.xlsx
@@ -15,9 +15,218 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="68">
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Imola</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Styria</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>Driver 1</t>
+  </si>
+  <si>
+    <t>Driver 2</t>
+  </si>
+  <si>
+    <t>Driver 3</t>
+  </si>
+  <si>
+    <t>Driver 4</t>
+  </si>
+  <si>
+    <t>Driver 5</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Turbo Driver</t>
+  </si>
+  <si>
+    <t>Mega Driver</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>Wildcard</t>
+  </si>
+  <si>
+    <t>Verstappen</t>
+  </si>
+  <si>
+    <t>Norris</t>
+  </si>
+  <si>
+    <t>Gasly</t>
+  </si>
+  <si>
+    <t>Tsunoda</t>
+  </si>
+  <si>
+    <t>Leclerc</t>
+  </si>
+  <si>
+    <t>Sainz</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Giovinazzi</t>
+  </si>
+  <si>
+    <t>Red Bull</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Driver Usage</t>
+  </si>
+  <si>
+    <t>Turbo Usage</t>
+  </si>
+  <si>
+    <t>Mega Usage</t>
+  </si>
+  <si>
+    <t>Bottas</t>
+  </si>
+  <si>
+    <t>Ricciardo</t>
+  </si>
+  <si>
+    <t>Vettel</t>
+  </si>
+  <si>
+    <t>Stroll</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>Ocon</t>
+  </si>
+  <si>
+    <t>Raikkonen</t>
+  </si>
+  <si>
+    <t>Schumacher</t>
+  </si>
+  <si>
+    <t>Mazepin</t>
+  </si>
+  <si>
+    <t>Latifi</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Team Usage</t>
+  </si>
+  <si>
+    <t>McLaren</t>
+  </si>
+  <si>
+    <t>Aston Martin</t>
+  </si>
+  <si>
+    <t>Alpine</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>AlphaTauri</t>
+  </si>
+  <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,13 +234,135 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFCC00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9ACD32"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFF200"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00D2BE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0600EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8700"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006F62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0090FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2B4562"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF900000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF005AFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +377,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,36 +712,2922 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="3">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="3">
+        <v>22</v>
+      </c>
+      <c r="N7" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="3">
+        <v>4</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="3">
+        <v>22</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="3">
+        <v>18</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="3">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="3">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="3">
+        <v>19</v>
+      </c>
+      <c r="N7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="3">
+        <v>18</v>
+      </c>
+      <c r="N12" s="3">
+        <v>12</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="3">
+        <v>22</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3">
+        <v>12</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="3">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="3">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="3">
+        <v>8</v>
+      </c>
+      <c r="N7" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="3">
+        <v>9</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="3">
+        <v>9</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="3">
+        <v>9</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="3">
+        <v>10</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>